--- a/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B445FC9-A2D0-BC48-8A6B-208DF26DBBDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D1CB0-EF86-C64E-9880-6E61FAC644C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{4073DAB4-B121-BF4E-AA95-56532C2C506F}"/>
+    <workbookView xWindow="-28400" yWindow="-4700" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,6 +30,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>harrison</t>
+  </si>
+  <si>
+    <t>tran</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,15 +404,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6563131A-B558-4949-88E9-C618727A6C66}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>92804</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D1CB0-EF86-C64E-9880-6E61FAC644C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006770E9-4DB2-2645-8A6E-28216443843F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28400" yWindow="-4700" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
+    <workbookView xWindow="2620" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="openAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>firstName</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>dollar</t>
   </si>
 </sst>
 </file>
@@ -408,7 +418,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,4 +454,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A487AA13-8EE4-C147-9CC1-2886C589E313}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006770E9-4DB2-2645-8A6E-28216443843F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8421C630-0566-3A49-BC01-85B299F4EEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
+    <workbookView xWindow="1680" yWindow="1060" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>firstName</t>
   </si>
@@ -63,14 +63,32 @@
     <t>currency</t>
   </si>
   <si>
-    <t>dollar</t>
+    <t>alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacquelin </t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>hoang</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Dollar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,13 +96,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,6 +479,48 @@
         <v>92804</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>92804</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>92804</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>12345</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -461,10 +534,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -475,11 +551,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006770E9-4DB2-2645-8A6E-28216443843F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD310F45-DD4A-474E-B201-D4B244E74028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>firstName</t>
   </si>
@@ -63,7 +63,19 @@
     <t>currency</t>
   </si>
   <si>
-    <t>dollar</t>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>jacquelin</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Dollar</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,6 +460,48 @@
         <v>92804</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>92804</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>92804</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92804</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -461,7 +515,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,10 +530,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD310F45-DD4A-474E-B201-D4B244E74028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B0625-A90A-0A47-A231-76F8F2F4F8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
+    <workbookView xWindow="3480" yWindow="1880" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
   <sheets>
-    <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="openAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>firstName</t>
   </si>
@@ -76,19 +77,46 @@
   </si>
   <si>
     <t>Dollar</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +569,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A3E68E-662F-DE43-B27B-5F260B89DA34}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/java/Eclipse/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B0625-A90A-0A47-A231-76F8F2F4F8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF17757-9475-6846-AD1A-8E65DD176347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1880" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
+    <workbookView xWindow="2500" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>firstName</t>
   </si>
@@ -52,9 +52,6 @@
     <t>tran</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>Customer added successfully</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>jacquelin</t>
   </si>
   <si>
-    <t>mai</t>
-  </si>
-  <si>
     <t>Harry Potter</t>
   </si>
   <si>
@@ -98,6 +92,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>runmode</t>
   </si>
 </sst>
 </file>
@@ -139,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,10 +482,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -490,12 +499,15 @@
         <v>92804</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -504,12 +516,15 @@
         <v>92804</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -518,12 +533,15 @@
         <v>92804</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -532,7 +550,10 @@
         <v>92804</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -552,18 +573,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -575,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A3E68E-662F-DE43-B27B-5F260B89DA34}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,34 +608,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
